--- a/prices.xlsx
+++ b/prices.xlsx
@@ -538,7 +538,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="34.5546875" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
@@ -548,7 +548,11 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>page_source.html</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
@@ -580,10 +584,8 @@
       <c r="Z1" s="11" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>MODEL</t>
-        </is>
+      <c r="A2" s="6" t="n">
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -646,7 +648,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>IPHONE 8</t>
+          <t>https://www.upwork.com/hire/landing/?utm_campaign=SEMBrand_Google_INTL_Marketplace_Core&amp;utm_medium=PaidSearch&amp;utm_content=150606034558&amp;utm_term=upwork&amp;campaignid=20227594544&amp;matchtype=e&amp;device=c&amp;utm_source=google#</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -40643,7 +40645,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="34.5546875" customWidth="1" min="1" max="1"/>
     <col width="13.6640625" customWidth="1" min="3" max="3"/>
